--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H2">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I2">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J2">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>3338.490700558581</v>
+        <v>14518.1272507097</v>
       </c>
       <c r="R2">
-        <v>30046.41630502723</v>
+        <v>130663.1452563873</v>
       </c>
       <c r="S2">
-        <v>0.02473176079886628</v>
+        <v>0.07406957351864578</v>
       </c>
       <c r="T2">
-        <v>0.02473176079886628</v>
+        <v>0.07406957351864581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H3">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I3">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J3">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>5499.87690250591</v>
+        <v>14077.37613920322</v>
       </c>
       <c r="R3">
-        <v>49498.89212255319</v>
+        <v>126696.385252829</v>
       </c>
       <c r="S3">
-        <v>0.04074345330757616</v>
+        <v>0.07182091938485882</v>
       </c>
       <c r="T3">
-        <v>0.04074345330757616</v>
+        <v>0.07182091938485882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H4">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I4">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J4">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>4867.805325371315</v>
+        <v>14335.36176654351</v>
       </c>
       <c r="R4">
-        <v>43810.24792834184</v>
+        <v>129018.2558988916</v>
       </c>
       <c r="S4">
-        <v>0.03606102509208362</v>
+        <v>0.07313712808457945</v>
       </c>
       <c r="T4">
-        <v>0.03606102509208362</v>
+        <v>0.07313712808457946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>33.74028533333333</v>
+        <v>86.360967</v>
       </c>
       <c r="H5">
-        <v>101.220856</v>
+        <v>259.082901</v>
       </c>
       <c r="I5">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="J5">
-        <v>0.1178820139940326</v>
+        <v>0.2482072712525276</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>2206.483298622436</v>
+        <v>5719.404818278767</v>
       </c>
       <c r="R5">
-        <v>19858.34968760192</v>
+        <v>51474.64336450891</v>
       </c>
       <c r="S5">
-        <v>0.01634577479550657</v>
+        <v>0.02917965026444354</v>
       </c>
       <c r="T5">
-        <v>0.01634577479550657</v>
+        <v>0.02917965026444354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I6">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J6">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>20668.57998037642</v>
+        <v>35115.78020234677</v>
       </c>
       <c r="R6">
-        <v>186017.2198233878</v>
+        <v>316042.021821121</v>
       </c>
       <c r="S6">
-        <v>0.153114212970963</v>
+        <v>0.1791560866250972</v>
       </c>
       <c r="T6">
-        <v>0.153114212970963</v>
+        <v>0.1791560866250972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I7">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J7">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>34049.71163245979</v>
@@ -883,10 +883,10 @@
         <v>306447.4046921381</v>
       </c>
       <c r="S7">
-        <v>0.25224252481023</v>
+        <v>0.173717145159055</v>
       </c>
       <c r="T7">
-        <v>0.25224252481023</v>
+        <v>0.173717145159055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I8">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J8">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>30136.55951760045</v>
+        <v>34673.71543326703</v>
       </c>
       <c r="R8">
-        <v>271229.0356584041</v>
+        <v>312063.4388994033</v>
       </c>
       <c r="S8">
-        <v>0.2232536340944086</v>
+        <v>0.1769007303833509</v>
       </c>
       <c r="T8">
-        <v>0.2232536340944086</v>
+        <v>0.1769007303833509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>626.6578360000001</v>
       </c>
       <c r="I9">
-        <v>0.7298069855566349</v>
+        <v>0.6003523616657895</v>
       </c>
       <c r="J9">
-        <v>0.7298069855566348</v>
+        <v>0.6003523616657896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>13660.32756218617</v>
+        <v>13833.83400755786</v>
       </c>
       <c r="R9">
-        <v>122942.9480596756</v>
+        <v>124504.5060680207</v>
       </c>
       <c r="S9">
-        <v>0.1011966136810332</v>
+        <v>0.07057839949828651</v>
       </c>
       <c r="T9">
-        <v>0.1011966136810332</v>
+        <v>0.07057839949828652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H10">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I10">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J10">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>4299.981941708269</v>
+        <v>8785.860920773357</v>
       </c>
       <c r="R10">
-        <v>38699.83747537442</v>
+        <v>79072.74828696022</v>
       </c>
       <c r="S10">
-        <v>0.0318545517601652</v>
+        <v>0.04482430551530035</v>
       </c>
       <c r="T10">
-        <v>0.03185455176016519</v>
+        <v>0.04482430551530037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H11">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I11">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J11">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>7083.851202112654</v>
+        <v>8519.133821644036</v>
       </c>
       <c r="R11">
-        <v>63754.66081901389</v>
+        <v>76672.20439479632</v>
       </c>
       <c r="S11">
-        <v>0.05247764010128844</v>
+        <v>0.04346349897756949</v>
       </c>
       <c r="T11">
-        <v>0.05247764010128843</v>
+        <v>0.0434634989775695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H12">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I12">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J12">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>6269.741890054042</v>
+        <v>8675.257666147425</v>
       </c>
       <c r="R12">
-        <v>56427.67701048638</v>
+        <v>78077.31899532683</v>
       </c>
       <c r="S12">
-        <v>0.04644666425744547</v>
+        <v>0.04426002227418767</v>
       </c>
       <c r="T12">
-        <v>0.04644666425744547</v>
+        <v>0.04426002227418768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.45754733333333</v>
+        <v>52.26262533333333</v>
       </c>
       <c r="H13">
-        <v>130.372642</v>
+        <v>156.787876</v>
       </c>
       <c r="I13">
-        <v>0.1518322430377689</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="J13">
-        <v>0.1518322430377688</v>
+        <v>0.1502063266901572</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>2841.954400882383</v>
+        <v>3461.183003513203</v>
       </c>
       <c r="R13">
-        <v>25577.58960794144</v>
+        <v>31150.64703161882</v>
       </c>
       <c r="S13">
-        <v>0.02105338691886978</v>
+        <v>0.01765849992309967</v>
       </c>
       <c r="T13">
-        <v>0.02105338691886977</v>
+        <v>0.01765849992309967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H14">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I14">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J14">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>13.55870257196133</v>
+        <v>72.18142863533154</v>
       </c>
       <c r="R14">
-        <v>122.028323147652</v>
+        <v>649.6328577179839</v>
       </c>
       <c r="S14">
-        <v>0.000100443769005142</v>
+        <v>0.0003682601442086286</v>
       </c>
       <c r="T14">
-        <v>0.000100443769005142</v>
+        <v>0.0003682601442086287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H15">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I15">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J15">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>22.33679880881522</v>
+        <v>69.99009607902043</v>
       </c>
       <c r="R15">
-        <v>201.031189279337</v>
+        <v>629.910864711184</v>
       </c>
       <c r="S15">
-        <v>0.0001654724888284366</v>
+        <v>0.0003570802540560917</v>
       </c>
       <c r="T15">
-        <v>0.0001654724888284366</v>
+        <v>0.0003570802540560918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H16">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I16">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J16">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>19.76974941816556</v>
+        <v>71.27275263845333</v>
       </c>
       <c r="R16">
-        <v>177.92774476349</v>
+        <v>641.4547737460799</v>
       </c>
       <c r="S16">
-        <v>0.0001464556164801624</v>
+        <v>0.0003636241989249758</v>
       </c>
       <c r="T16">
-        <v>0.0001464556164801624</v>
+        <v>0.0003636241989249758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1370303333333333</v>
+        <v>0.4293706666666666</v>
       </c>
       <c r="H17">
-        <v>0.411091</v>
+        <v>1.288112</v>
       </c>
       <c r="I17">
-        <v>0.0004787574115636888</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="J17">
-        <v>0.0004787574115636886</v>
+        <v>0.001234040391525629</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>8.961250295235558</v>
+        <v>28.43581707185956</v>
       </c>
       <c r="R17">
-        <v>80.65125265712001</v>
+        <v>255.922353646736</v>
       </c>
       <c r="S17">
-        <v>6.638553724994769E-05</v>
+        <v>0.000145075794335933</v>
       </c>
       <c r="T17">
-        <v>6.638553724994768E-05</v>
+        <v>0.000145075794335933</v>
       </c>
     </row>
   </sheetData>
